--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/MyPOMFramework/PageObjectModel/src/main/java/com/crm/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\e2e\Automation_Testing\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="6600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -138,6 +138,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,12 +412,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -456,7 +459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -481,7 +484,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -493,7 +496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
